--- a/MvcProject/MvcProject/Excel/file.xlsx
+++ b/MvcProject/MvcProject/Excel/file.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
   <si>
     <t>Title1</t>
   </si>
@@ -267,6 +267,27 @@
     <t>87c47f67-d809-4a75-ba3b-ffe3448090e4</t>
   </si>
   <si>
+    <t>elmareg</t>
+  </si>
+  <si>
+    <t>1d7d3a6f-7862-4adc-8d0f-60065d46376c</t>
+  </si>
+  <si>
+    <t>ELMAREG</t>
+  </si>
+  <si>
+    <t>elmareg@code.edu.az</t>
+  </si>
+  <si>
+    <t>ELMAREG@CODE.EDU.AZ</t>
+  </si>
+  <si>
+    <t>CDBF3CI5WZBPQCY6E7OIM2YHV5FPJLRQ</t>
+  </si>
+  <si>
+    <t>f3750435-169b-449f-bd37-83377de0fddf</t>
+  </si>
+  <si>
     <t>CengizAsker</t>
   </si>
   <si>
@@ -372,24 +393,6 @@
     <t>89363446-427b-455c-9096-754aeeaefca1</t>
   </si>
   <si>
-    <t>elmareg@code.edu.az</t>
-  </si>
-  <si>
-    <t>a293804a-aa53-424a-8590-f96c8128456f</t>
-  </si>
-  <si>
-    <t>109069777597771073312</t>
-  </si>
-  <si>
-    <t>ELMAREG@CODE.EDU.AZ</t>
-  </si>
-  <si>
-    <t>3ILBOIC57V7ZV4K7HPDQYIQ7NH5L4MWV</t>
-  </si>
-  <si>
-    <t>a79ebb76-b407-473f-be75-b294597ac265</t>
-  </si>
-  <si>
     <t>a51f37be-825d-497b-8a44-caf95535dcff</t>
   </si>
   <si>
@@ -501,27 +504,6 @@
     <t>ff5a0bd2-8787-4a82-9060-9b0e1d8372e4</t>
   </si>
   <si>
-    <t>eqarayev4</t>
-  </si>
-  <si>
-    <t>c945ccd1-d758-4373-8d7e-41c90b3625e2</t>
-  </si>
-  <si>
-    <t>EQARAYEV4</t>
-  </si>
-  <si>
-    <t>eqarayev4@std.beu.edu.az</t>
-  </si>
-  <si>
-    <t>EQARAYEV4@STD.BEU.EDU.AZ</t>
-  </si>
-  <si>
-    <t>JJ27AK7RKKPNGVGBGCRJEZCEDDP2LZHL</t>
-  </si>
-  <si>
-    <t>ae7122ae-ee1c-41c1-9f04-06c5098d7d31</t>
-  </si>
-  <si>
     <t>cc1ec0d4-4b37-4a60-a35f-ff8734ad1e19</t>
   </si>
   <si>
@@ -540,10 +522,10 @@
     <t>0180c7f3-8935-4f97-98de-5fa15f83708c</t>
   </si>
   <si>
-    <t>Mulayim Novruz</t>
-  </si>
-  <si>
-    <t>XymgnIPI7bpIXox6yWpZMA</t>
+    <t>Mulayim Novruzlu</t>
+  </si>
+  <si>
+    <t>v3K2mlKIDm3vOiFS5k6-Cg</t>
   </si>
   <si>
     <t>d9042d9a-5a55-425a-bccf-7745bb3b7a5b</t>
@@ -567,7 +549,7 @@
     <t>WDKKE2F65IKCMLDXRTJBMQ3S3USOPGTN</t>
   </si>
   <si>
-    <t>ea960c6e-c64d-49a0-b09d-0749a7a9a559</t>
+    <t>3b8b11da-5310-4082-8054-88079d0545da</t>
   </si>
   <si>
     <t>Mahmud Mirzezade</t>
@@ -595,33 +577,6 @@
   </si>
   <si>
     <t>540cadcf-c880-43f1-a012-1fd594ed3601</t>
-  </si>
-  <si>
-    <t>feride memmedli</t>
-  </si>
-  <si>
-    <t>f52ee1d8-cc3c-4f12-97d2-68ee9f15682a</t>
-  </si>
-  <si>
-    <t>feride</t>
-  </si>
-  <si>
-    <t>FERIDE</t>
-  </si>
-  <si>
-    <t>elmarqarayev823@gmail.com</t>
-  </si>
-  <si>
-    <t>ELMARQARAYEV823@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>AQAAAAIAAYagAAAAENmYgw6Vim0pSt7LUgIQju744t0mTyM3OE9FSXXdnXAJueIDZCxctVz+GzNRteGNqA==</t>
-  </si>
-  <si>
-    <t>EJN27M5C4CIGL2NHD7NRJUQHIQM3O3NV</t>
-  </si>
-  <si>
-    <t>b1fa2dba-2177-4418-b572-c574e656894e</t>
   </si>
   <si>
     <t>Courses</t>
@@ -1413,16 +1368,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>8</v>
@@ -1436,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E2" s="0">
         <v>1</v>
@@ -1450,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E3" s="0">
         <v>3</v>
@@ -1464,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E4" s="0">
         <v>4</v>
@@ -1478,7 +1433,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E5" s="0">
         <v>6</v>
@@ -1492,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E6" s="0">
         <v>7</v>
@@ -1506,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E7" s="0">
         <v>8</v>
@@ -1520,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E8" s="0">
         <v>9</v>
@@ -1534,7 +1489,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E9" s="0">
         <v>2002</v>
@@ -1548,7 +1503,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E10" s="0">
         <v>2003</v>
@@ -1573,10 +1528,10 @@
         <v>30</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>8</v>
@@ -1584,13 +1539,13 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D2" s="0">
         <v>1</v>
@@ -1598,13 +1553,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
@@ -1612,13 +1567,13 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
@@ -1626,7 +1581,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D5" s="0">
         <v>2002</v>
@@ -1648,73 +1603,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="R1" s="0" t="s">
         <v>49</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="V1" s="0" t="s">
         <v>6</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="X1" s="0" t="s">
         <v>8</v>
@@ -1722,34 +1677,34 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="K2" s="0">
         <v>34</v>
@@ -1770,22 +1725,22 @@
         <v>23</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="X2" s="0">
         <v>2</v>
@@ -1793,34 +1748,34 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="K3" s="0">
         <v>0</v>
@@ -1841,22 +1796,22 @@
         <v>0</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="X3" s="0">
         <v>3</v>
@@ -1864,34 +1819,34 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="K4" s="0">
         <v>0</v>
@@ -1912,22 +1867,22 @@
         <v>0</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="X4" s="0">
         <v>4</v>
@@ -1949,34 +1904,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5">
@@ -1984,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6">
@@ -1992,63 +1947,63 @@
         <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2073,22 +2028,22 @@
         <v>30</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>49</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
@@ -2096,19 +2051,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="D2" s="0">
         <v>45433.83282028935</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3">
@@ -2116,19 +2071,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D3" s="0">
         <v>45434.418340833334</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4">
@@ -2136,19 +2091,19 @@
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D4" s="0">
         <v>45434.42715778935</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -2156,19 +2111,19 @@
         <v>1004</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D5" s="0">
         <v>45435.06638769676</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
@@ -2176,19 +2131,19 @@
         <v>1005</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D6" s="0">
         <v>45435.07492116898</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7">
@@ -2196,19 +2151,19 @@
         <v>2004</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="D7" s="0">
         <v>45437.646897349536</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8">
@@ -2216,19 +2171,19 @@
         <v>2005</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D8" s="0">
         <v>45437.660288680556</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2239,7 +2194,7 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2247,10 +2202,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>43</v>
@@ -2259,19 +2214,19 @@
         <v>49</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>8</v>
@@ -2282,19 +2237,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="E2" s="0">
         <v>45434.72516041667</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="J2" s="0">
         <v>6</v>
@@ -2302,7 +2257,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B3" s="0">
         <v>3</v>
@@ -2311,13 +2266,13 @@
         <v>45435.06265453704</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="J3" s="0">
         <v>1002</v>
@@ -2334,13 +2289,13 @@
         <v>45435.4767309838</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="J4" s="0">
         <v>2002</v>
@@ -2348,163 +2303,140 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="B5" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" s="0">
-        <v>45435.86693240741</v>
+        <v>45436.807253252315</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="J5" s="0">
-        <v>3002</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B6" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="0">
-        <v>45436.807253252315</v>
+        <v>45436.807348298615</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="J6" s="0">
-        <v>5005</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B7" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="0">
-        <v>45436.807348298615</v>
+        <v>45437.552564467594</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="J7" s="0">
-        <v>5006</v>
+        <v>6002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="B8" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8" s="0">
-        <v>45437.552564467594</v>
+        <v>45438.54137724537</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="J8" s="0">
-        <v>6002</v>
+        <v>7003</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0">
-        <v>45438.421244756944</v>
+        <v>45438.551795844905</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="J9" s="0">
-        <v>7002</v>
+        <v>7004</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="B10" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="0">
-        <v>45438.54137724537</v>
+        <v>45438.70234299768</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="J10" s="0">
-        <v>7003</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2</v>
-      </c>
-      <c r="E11" s="0">
-        <v>45438.551795844905</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="J11" s="0">
-        <v>7004</v>
+        <v>8004</v>
       </c>
     </row>
   </sheetData>
@@ -2523,7 +2455,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>43</v>
@@ -2532,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>6</v>
@@ -2546,16 +2478,16 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="F2" s="0">
         <v>2</v>
@@ -2566,16 +2498,16 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="F3" s="0">
         <v>4</v>
@@ -2752,7 +2684,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2915,129 +2847,129 @@
       <c r="A4" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="C4" s="0">
+        <v>45438.70141214121</v>
+      </c>
       <c r="D4" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>80</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="O4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="D5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="0">
+      <c r="F5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="0">
         <v>45438.46653704861</v>
       </c>
-      <c r="D5" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="M5" s="0" t="s">
+      <c r="D6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="O5" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="J6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="L6" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="0" t="s">
+      <c r="M6" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="O6" s="0" t="b">
         <v>0</v>
@@ -3054,37 +2986,37 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="J7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="L7" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="s">
+      <c r="M7" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>113</v>
       </c>
       <c r="O7" s="0" t="b">
         <v>0</v>
@@ -3101,22 +3033,22 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>117</v>
@@ -3124,11 +3056,14 @@
       <c r="J8" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="K8" s="0" t="s">
+        <v>118</v>
+      </c>
       <c r="L8" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O8" s="0" t="b">
         <v>0</v>
@@ -3148,25 +3083,25 @@
         <v>0</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J9" s="0" t="b">
         <v>0</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O9" s="0" t="b">
         <v>0</v>
@@ -3186,25 +3121,25 @@
         <v>0</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J10" s="0" t="b">
         <v>0</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O10" s="0" t="b">
         <v>0</v>
@@ -3224,25 +3159,25 @@
         <v>0</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J11" s="0" t="b">
         <v>0</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O11" s="0" t="b">
         <v>0</v>
@@ -3259,37 +3194,37 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D12" s="0" t="b">
         <v>0</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J12" s="0" t="b">
         <v>0</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O12" s="0" t="b">
         <v>0</v>
@@ -3306,10 +3241,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C13" s="0">
         <v>45438.551748460646</v>
@@ -3318,31 +3253,31 @@
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J13" s="0" t="b">
         <v>1</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O13" s="0" t="b">
         <v>0</v>
@@ -3358,29 +3293,23 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>157</v>
-      </c>
       <c r="D14" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>158</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="J14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="J14" s="0" t="b">
-        <v>0</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>162</v>
@@ -3402,29 +3331,44 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="0">
+        <v>45438.995587777776</v>
+      </c>
       <c r="D15" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>170</v>
       </c>
       <c r="J15" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="O15" s="0" t="b">
         <v>0</v>
@@ -3441,43 +3385,37 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="0">
-        <v>45438.549316689816</v>
+        <v>174</v>
       </c>
       <c r="D16" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J16" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O16" s="0" t="b">
         <v>0</v>
@@ -3489,100 +3427,6 @@
         <v>1</v>
       </c>
       <c r="S16" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="J17" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="O17" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S17" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="D18" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="J18" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="O18" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="R18" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S18" s="0">
         <v>0</v>
       </c>
     </row>
@@ -3605,10 +3449,10 @@
         <v>30</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>8</v>
@@ -3616,7 +3460,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D2" s="0">
         <v>1</v>
@@ -3624,7 +3468,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
@@ -3632,7 +3476,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
@@ -3640,7 +3484,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D5" s="0">
         <v>1002</v>
@@ -3662,7 +3506,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>30</v>
@@ -3671,52 +3515,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="P1" s="0" t="s">
         <v>6</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="T1" s="0" t="s">
         <v>8</v>
@@ -3724,16 +3568,16 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E2" s="0">
         <v>45272</v>
@@ -3745,7 +3589,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="I2" s="0">
         <v>12</v>
@@ -3754,19 +3598,19 @@
         <v>34</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="L2" s="0">
         <v>1</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="S2" s="0" t="b">
         <v>0</v>
@@ -3777,16 +3621,16 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E3" s="0">
         <v>45272</v>
@@ -3798,7 +3642,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="I3" s="0">
         <v>45</v>
@@ -3807,19 +3651,19 @@
         <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="L3" s="0">
         <v>2</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="R3" s="0">
         <v>45432.84303045139</v>
@@ -3833,16 +3677,16 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E4" s="0">
         <v>45272</v>
@@ -3854,7 +3698,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="I4" s="0">
         <v>23</v>
@@ -3863,19 +3707,19 @@
         <v>56</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="L4" s="0">
         <v>3</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="S4" s="0" t="b">
         <v>0</v>
@@ -3886,16 +3730,16 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E5" s="0">
         <v>45272</v>
@@ -3907,7 +3751,7 @@
         <v>45</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="I5" s="0">
         <v>45</v>
@@ -3916,19 +3760,19 @@
         <v>12</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="L5" s="0">
         <v>1</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="S5" s="0" t="b">
         <v>0</v>
@@ -3939,16 +3783,16 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E6" s="0">
         <v>45638</v>
@@ -3960,7 +3804,7 @@
         <v>45</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="I6" s="0">
         <v>45</v>
@@ -3969,19 +3813,19 @@
         <v>45</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="L6" s="0">
         <v>2</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="S6" s="0" t="b">
         <v>0</v>
@@ -4006,16 +3850,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>8</v>
@@ -4029,7 +3873,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E2" s="0">
         <v>1002</v>
@@ -4043,7 +3887,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E3" s="0">
         <v>1003</v>
@@ -4057,7 +3901,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E4" s="0">
         <v>1004</v>
@@ -4071,7 +3915,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E5" s="0">
         <v>1005</v>
@@ -4085,7 +3929,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E6" s="0">
         <v>1008</v>
@@ -4099,7 +3943,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E7" s="0">
         <v>1010</v>
@@ -4121,55 +3965,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N1" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="R1" s="0" t="s">
         <v>8</v>
@@ -4177,7 +4021,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B2" s="0">
         <v>45638</v>
@@ -4189,31 +4033,31 @@
         <v>0.75</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="G2" s="0">
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="Q2" s="0" t="b">
         <v>0</v>
@@ -4224,7 +4068,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B3" s="0">
         <v>45638</v>
@@ -4236,31 +4080,31 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="G3" s="0">
         <v>2</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="Q3" s="0" t="b">
         <v>0</v>
@@ -4271,7 +4115,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B4" s="0">
         <v>45543</v>
@@ -4283,31 +4127,31 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="G4" s="0">
         <v>3</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="Q4" s="0" t="b">
         <v>0</v>
@@ -4318,7 +4162,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B5" s="0">
         <v>45482</v>
@@ -4330,31 +4174,31 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="G5" s="0">
         <v>2</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="0" t="b">
         <v>0</v>
@@ -4365,7 +4209,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B6" s="0">
         <v>45391</v>
@@ -4377,31 +4221,31 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="G6" s="0">
         <v>1</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="Q6" s="0" t="b">
         <v>0</v>
@@ -4412,7 +4256,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B7" s="0">
         <v>45544</v>
@@ -4424,31 +4268,31 @@
         <v>0.6819444444444445</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="G7" s="0">
         <v>2</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="Q7" s="0" t="b">
         <v>0</v>
@@ -4459,7 +4303,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
@@ -4471,31 +4315,31 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="G8" s="0">
         <v>2</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="O8" s="0">
         <v>45435.65581940972</v>
@@ -4526,16 +4370,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>8</v>
@@ -4549,7 +4393,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E2" s="0">
         <v>1</v>
@@ -4563,7 +4407,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E3" s="0">
         <v>2</v>
@@ -4577,7 +4421,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E4" s="0">
         <v>3</v>
@@ -4591,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E5" s="0">
         <v>5</v>
@@ -4605,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E6" s="0">
         <v>6</v>
@@ -4619,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E7" s="0">
         <v>7</v>
@@ -4633,7 +4477,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E8" s="0">
         <v>9</v>
@@ -4647,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E9" s="0">
         <v>10</v>
@@ -4661,7 +4505,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E10" s="0">
         <v>1002</v>
@@ -4675,7 +4519,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E11" s="0">
         <v>1003</v>
@@ -4689,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E12" s="0">
         <v>2002</v>
@@ -4703,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E13" s="0">
         <v>2003</v>

--- a/MvcProject/MvcProject/Excel/file.xlsx
+++ b/MvcProject/MvcProject/Excel/file.xlsx
@@ -525,7 +525,7 @@
     <t>Mulayim Novruzlu</t>
   </si>
   <si>
-    <t>v3K2mlKIDm3vOiFS5k6-Cg</t>
+    <t>JwILfg73h1xwvtCjYAV6kA</t>
   </si>
   <si>
     <t>d9042d9a-5a55-425a-bccf-7745bb3b7a5b</t>
@@ -549,7 +549,7 @@
     <t>WDKKE2F65IKCMLDXRTJBMQ3S3USOPGTN</t>
   </si>
   <si>
-    <t>3b8b11da-5310-4082-8054-88079d0545da</t>
+    <t>6aa7b660-b5cf-4a4d-801c-e958f518c0a5</t>
   </si>
   <si>
     <t>Mahmud Mirzezade</t>
@@ -3338,7 +3338,7 @@
         <v>165</v>
       </c>
       <c r="C15" s="0">
-        <v>45438.995587777776</v>
+        <v>45438.99663332176</v>
       </c>
       <c r="D15" s="0" t="b">
         <v>1</v>

--- a/MvcProject/MvcProject/Excel/file.xlsx
+++ b/MvcProject/MvcProject/Excel/file.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t>Title1</t>
   </si>
@@ -270,7 +270,10 @@
     <t>elmareg</t>
   </si>
   <si>
-    <t>1d7d3a6f-7862-4adc-8d0f-60065d46376c</t>
+    <t>apG4cQdTQJfVMNHby1zPsw</t>
+  </si>
+  <si>
+    <t>1cbb7439-4567-4a9d-9bd4-a50e05d35691</t>
   </si>
   <si>
     <t>ELMAREG</t>
@@ -282,10 +285,13 @@
     <t>ELMAREG@CODE.EDU.AZ</t>
   </si>
   <si>
-    <t>CDBF3CI5WZBPQCY6E7OIM2YHV5FPJLRQ</t>
-  </si>
-  <si>
-    <t>f3750435-169b-449f-bd37-83377de0fddf</t>
+    <t>AQAAAAIAAYagAAAAEBmHJMwI0dfFoztioy6jeehuF7b+IL0EhSDmwi5DJ8ZfWiOKxW7sQi0kLyCizwGKiw==</t>
+  </si>
+  <si>
+    <t>25LYVTGFG7Q4CZM7QJJD7A2YOCBRHJ7M</t>
+  </si>
+  <si>
+    <t>83b7058f-55cf-458c-a1e7-d44146fff41d</t>
   </si>
   <si>
     <t>CengizAsker</t>
@@ -336,7 +342,7 @@
     <t>IOKMR2WQUF4ISNOINZ2NM3PGN4WXVG4Z</t>
   </si>
   <si>
-    <t>32b6208c-bc24-4925-a15d-cfdb9086a996</t>
+    <t>66298628-a11c-4920-8a4c-f246e4150265</t>
   </si>
   <si>
     <t>Nargiz nadirli</t>
@@ -393,24 +399,6 @@
     <t>89363446-427b-455c-9096-754aeeaefca1</t>
   </si>
   <si>
-    <t>a51f37be-825d-497b-8a44-caf95535dcff</t>
-  </si>
-  <si>
-    <t>kamal</t>
-  </si>
-  <si>
-    <t>KAMAL</t>
-  </si>
-  <si>
-    <t>AQAAAAIAAYagAAAAEIk+Mr23NqcdPHAa2+SamgCm0JG2xpgDHhmjparMtOQac7N0GnzUMxUEcLXRKm+bug==</t>
-  </si>
-  <si>
-    <t>YFONSTOYQZLB4KCOGUNLPHR6EOMWWTWJ</t>
-  </si>
-  <si>
-    <t>1b3a33ad-9abc-4391-b0f2-4dc39057ddd7</t>
-  </si>
-  <si>
     <t>abec272a-aec8-43a8-9a3d-3ae2ce4f3567</t>
   </si>
   <si>
@@ -474,19 +462,64 @@
     <t>fb0ccf9a-bb5b-4152-8d79-b048050c3de2</t>
   </si>
   <si>
+    <t>b97b4683-2819-42bb-9692-b14581d54717</t>
+  </si>
+  <si>
+    <t>ceyfer</t>
+  </si>
+  <si>
+    <t>CEYFER</t>
+  </si>
+  <si>
+    <t>AQAAAAIAAYagAAAAED2GVnm6uy0gNudTopEy6vOytWBP6DjjE97b29Si443snzOuz1X53NEg7nGleC3rmA==</t>
+  </si>
+  <si>
+    <t>NXEW3BJZMXE7QMAHDLRMAALEW6K3VBLT</t>
+  </si>
+  <si>
+    <t>7abcbe82-a2fc-4794-a3ec-b5633d9eb80e</t>
+  </si>
+  <si>
+    <t>Mulayim Novruzlu</t>
+  </si>
+  <si>
+    <t>JwILfg73h1xwvtCjYAV6kA</t>
+  </si>
+  <si>
+    <t>d9042d9a-5a55-425a-bccf-7745bb3b7a5b</t>
+  </si>
+  <si>
+    <t>MulayimNovruz</t>
+  </si>
+  <si>
+    <t>MULAYIMNOVRUZ</t>
+  </si>
+  <si>
+    <t>mulayimen@code.edu.az</t>
+  </si>
+  <si>
+    <t>MULAYIMEN@CODE.EDU.AZ</t>
+  </si>
+  <si>
+    <t>AQAAAAIAAYagAAAAEKAw4Rft9YLYjmcvKSBlfeE1QVz1RSwbPVJQfJLpCoOiozGaE48aZISnTARxzJFc5A==</t>
+  </si>
+  <si>
+    <t>WDKKE2F65IKCMLDXRTJBMQ3S3USOPGTN</t>
+  </si>
+  <si>
+    <t>6aa7b660-b5cf-4a4d-801c-e958f518c0a5</t>
+  </si>
+  <si>
     <t>Elmar Qarayev</t>
   </si>
   <si>
-    <t>y7TndpPpaSKfn_-CBAwjCQ</t>
-  </si>
-  <si>
-    <t>c9091d8f-282f-4763-859e-9b2f435f108f</t>
-  </si>
-  <si>
-    <t>Thiselmar</t>
-  </si>
-  <si>
-    <t>THISELMAR</t>
+    <t>ec73d219-0688-423a-94c9-883967b69b88</t>
+  </si>
+  <si>
+    <t>Thiselmm</t>
+  </si>
+  <si>
+    <t>THISELMM</t>
   </si>
   <si>
     <t>elmarqarayev69@gmail.com</t>
@@ -495,61 +528,13 @@
     <t>ELMARQARAYEV69@GMAIL.COM</t>
   </si>
   <si>
-    <t>AQAAAAIAAYagAAAAEA8xonzzIGHCKB7Hq3inMJvk6LZXWoED2fTTSaJWf1Ii8p63lZ0GvOJdveHvOvus/w==</t>
-  </si>
-  <si>
-    <t>H2VSBVK7D52FWLCUEWX5VWDM3KKW26EX</t>
-  </si>
-  <si>
-    <t>ff5a0bd2-8787-4a82-9060-9b0e1d8372e4</t>
-  </si>
-  <si>
-    <t>cc1ec0d4-4b37-4a60-a35f-ff8734ad1e19</t>
-  </si>
-  <si>
-    <t>ferid</t>
-  </si>
-  <si>
-    <t>FERID</t>
-  </si>
-  <si>
-    <t>AQAAAAIAAYagAAAAEHuzOduR3loDJ9C5RrGT2zkhmQo/lQZdf15T4VjwXBmOmzlQkD/ESid5svIDxdi3lw==</t>
-  </si>
-  <si>
-    <t>Z6DIKD4VDEJH7DO46XGPAXIO2IGZOOFS</t>
-  </si>
-  <si>
-    <t>0180c7f3-8935-4f97-98de-5fa15f83708c</t>
-  </si>
-  <si>
-    <t>Mulayim Novruzlu</t>
-  </si>
-  <si>
-    <t>JwILfg73h1xwvtCjYAV6kA</t>
-  </si>
-  <si>
-    <t>d9042d9a-5a55-425a-bccf-7745bb3b7a5b</t>
-  </si>
-  <si>
-    <t>MulayimNovruz</t>
-  </si>
-  <si>
-    <t>MULAYIMNOVRUZ</t>
-  </si>
-  <si>
-    <t>mulayimen@code.edu.az</t>
-  </si>
-  <si>
-    <t>MULAYIMEN@CODE.EDU.AZ</t>
-  </si>
-  <si>
-    <t>AQAAAAIAAYagAAAAEKAw4Rft9YLYjmcvKSBlfeE1QVz1RSwbPVJQfJLpCoOiozGaE48aZISnTARxzJFc5A==</t>
-  </si>
-  <si>
-    <t>WDKKE2F65IKCMLDXRTJBMQ3S3USOPGTN</t>
-  </si>
-  <si>
-    <t>6aa7b660-b5cf-4a4d-801c-e958f518c0a5</t>
+    <t>AQAAAAIAAYagAAAAEKI/hEsT5iPdevyixOKWTNzHP8aeH2sTj8G1OzU2XQeiQnO28pRzQr1637HV3hSuxA==</t>
+  </si>
+  <si>
+    <t>TLOC77NTXJVE6HA5XGRQQF7TV6YJKNJC</t>
+  </si>
+  <si>
+    <t>9086e827-7197-4653-bf8a-a2dab0f3f2c8</t>
   </si>
   <si>
     <t>Mahmud Mirzezade</t>
@@ -837,6 +822,15 @@
     <t>the best day</t>
   </si>
   <si>
+    <t>3067b776-f611-4fe3-87d0-14ced06f049fevent-details.jpg</t>
+  </si>
+  <si>
+    <t>Elm'birthday</t>
+  </si>
+  <si>
+    <t>khirdalan</t>
+  </si>
+  <si>
     <t>EventId</t>
   </si>
   <si>
@@ -1102,9 +1096,6 @@
   </si>
   <si>
     <t>course</t>
-  </si>
-  <si>
-    <t>hey I am elmar</t>
   </si>
   <si>
     <t>Status</t>
@@ -1360,7 +1351,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1368,16 +1359,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>8</v>
@@ -1391,7 +1382,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E2" s="0">
         <v>1</v>
@@ -1405,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E3" s="0">
         <v>3</v>
@@ -1419,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E4" s="0">
         <v>4</v>
@@ -1433,7 +1424,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E5" s="0">
         <v>6</v>
@@ -1447,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E6" s="0">
         <v>7</v>
@@ -1461,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E7" s="0">
         <v>8</v>
@@ -1475,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E8" s="0">
         <v>9</v>
@@ -1489,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E9" s="0">
         <v>2002</v>
@@ -1503,10 +1494,24 @@
         <v>3</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E10" s="0">
         <v>2003</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>3007</v>
+      </c>
+      <c r="B11" s="0">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E11" s="0">
+        <v>4003</v>
       </c>
     </row>
   </sheetData>
@@ -1528,10 +1533,10 @@
         <v>30</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>8</v>
@@ -1539,13 +1544,13 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D2" s="0">
         <v>1</v>
@@ -1553,13 +1558,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
@@ -1567,13 +1572,13 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
@@ -1581,7 +1586,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D5" s="0">
         <v>2002</v>
@@ -1603,73 +1608,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>279</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>286</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>288</v>
       </c>
       <c r="R1" s="0" t="s">
         <v>49</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="V1" s="0" t="s">
         <v>6</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="X1" s="0" t="s">
         <v>8</v>
@@ -1677,34 +1682,34 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="I2" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>299</v>
       </c>
       <c r="K2" s="0">
         <v>34</v>
@@ -1725,22 +1730,22 @@
         <v>23</v>
       </c>
       <c r="Q2" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="S2" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="T2" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="S2" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>302</v>
-      </c>
       <c r="U2" s="0" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="X2" s="0">
         <v>2</v>
@@ -1748,34 +1753,34 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="D3" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>306</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K3" s="0">
         <v>0</v>
@@ -1796,22 +1801,22 @@
         <v>0</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="X3" s="0">
         <v>3</v>
@@ -1819,34 +1824,34 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="D4" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="I4" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K4" s="0">
         <v>0</v>
@@ -1867,22 +1872,22 @@
         <v>0</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="X4" s="0">
         <v>4</v>
@@ -1904,34 +1909,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5">
@@ -1939,7 +1944,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6">
@@ -1947,63 +1952,63 @@
         <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -2028,22 +2033,22 @@
         <v>30</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>49</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>335</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2">
@@ -2051,19 +2056,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D2" s="0">
         <v>45433.83282028935</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>339</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="3">
@@ -2071,19 +2076,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D3" s="0">
         <v>45434.418340833334</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>343</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="4">
@@ -2091,19 +2096,19 @@
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" s="0">
         <v>45434.42715778935</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -2111,19 +2116,19 @@
         <v>1004</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5" s="0">
         <v>45435.06638769676</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -2131,19 +2136,19 @@
         <v>1005</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D6" s="0">
         <v>45435.07492116898</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>351</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="7">
@@ -2151,39 +2156,39 @@
         <v>2004</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D7" s="0">
         <v>45437.646897349536</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>355</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>2005</v>
+        <v>3004</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="D8" s="0">
-        <v>45437.660288680556</v>
+        <v>45440.70775488426</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2194,7 +2199,7 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2202,10 +2207,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>43</v>
@@ -2214,19 +2219,19 @@
         <v>49</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>8</v>
@@ -2237,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E2" s="0">
         <v>45434.72516041667</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J2" s="0">
         <v>6</v>
@@ -2257,7 +2262,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B3" s="0">
         <v>3</v>
@@ -2266,13 +2271,13 @@
         <v>45435.06265453704</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J3" s="0">
         <v>1002</v>
@@ -2289,13 +2294,13 @@
         <v>45435.4767309838</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J4" s="0">
         <v>2002</v>
@@ -2303,7 +2308,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B5" s="0">
         <v>2</v>
@@ -2312,13 +2317,13 @@
         <v>45436.807253252315</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J5" s="0">
         <v>5005</v>
@@ -2326,7 +2331,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B6" s="0">
         <v>1</v>
@@ -2335,13 +2340,13 @@
         <v>45436.807348298615</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J6" s="0">
         <v>5006</v>
@@ -2349,94 +2354,48 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B7" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="0">
-        <v>45437.552564467594</v>
+        <v>45438.54137724537</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J7" s="0">
-        <v>6002</v>
+        <v>7003</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="B8" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="0">
-        <v>45438.54137724537</v>
+        <v>45440.710728935184</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J8" s="0">
-        <v>7003</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2</v>
-      </c>
-      <c r="E9" s="0">
-        <v>45438.551795844905</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="J9" s="0">
-        <v>7004</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="0">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0">
-        <v>45438.70234299768</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="J10" s="0">
-        <v>8004</v>
+        <v>9004</v>
       </c>
     </row>
   </sheetData>
@@ -2455,7 +2414,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>43</v>
@@ -2464,7 +2423,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>6</v>
@@ -2478,16 +2437,16 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F2" s="0">
         <v>2</v>
@@ -2498,16 +2457,16 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F3" s="0">
         <v>4</v>
@@ -2684,7 +2643,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2847,35 +2806,41 @@
       <c r="A4" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="B4" s="0" t="s">
+        <v>80</v>
+      </c>
       <c r="C4" s="0">
-        <v>45438.70141214121</v>
+        <v>45440.71106956019</v>
       </c>
       <c r="D4" s="0" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J4" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="K4" s="0" t="s">
+        <v>85</v>
+      </c>
       <c r="L4" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O4" s="0" t="b">
         <v>0</v>
@@ -2892,37 +2857,37 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" s="0" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J5" s="0" t="b">
         <v>0</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O5" s="0" t="b">
         <v>0</v>
@@ -2939,37 +2904,37 @@
     </row>
     <row r="6">
       <c r="C6" s="0">
-        <v>45438.46653704861</v>
+        <v>45440.75629636574</v>
       </c>
       <c r="D6" s="0" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J6" s="0" t="b">
         <v>0</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O6" s="0" t="b">
         <v>0</v>
@@ -2986,37 +2951,37 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D7" s="0" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J7" s="0" t="b">
         <v>0</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O7" s="0" t="b">
         <v>0</v>
@@ -3033,37 +2998,37 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D8" s="0" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J8" s="0" t="b">
         <v>0</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O8" s="0" t="b">
         <v>0</v>
@@ -3083,25 +3048,25 @@
         <v>0</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J9" s="0" t="b">
         <v>0</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O9" s="0" t="b">
         <v>0</v>
@@ -3121,25 +3086,25 @@
         <v>0</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J10" s="0" t="b">
         <v>0</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O10" s="0" t="b">
         <v>0</v>
@@ -3155,29 +3120,38 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>135</v>
+      </c>
       <c r="D11" s="0" t="b">
         <v>0</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="J11" s="0" t="b">
         <v>0</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O11" s="0" t="b">
         <v>0</v>
@@ -3193,38 +3167,29 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="D12" s="0" t="b">
         <v>0</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J12" s="0" t="b">
         <v>0</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O12" s="0" t="b">
         <v>0</v>
@@ -3241,43 +3206,43 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C13" s="0">
-        <v>45438.551748460646</v>
+        <v>45438.99663332176</v>
       </c>
       <c r="D13" s="0" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J13" s="0" t="b">
         <v>1</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O13" s="0" t="b">
         <v>0</v>
@@ -3293,29 +3258,41 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="0">
+        <v>45440.70657541667</v>
+      </c>
       <c r="D14" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>165</v>
       </c>
       <c r="J14" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="O14" s="0" t="b">
         <v>0</v>
@@ -3332,43 +3309,37 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="0">
-        <v>45438.99663332176</v>
+        <v>169</v>
       </c>
       <c r="D15" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J15" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O15" s="0" t="b">
         <v>0</v>
@@ -3380,53 +3351,6 @@
         <v>1</v>
       </c>
       <c r="S15" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="J16" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="M16" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="O16" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="R16" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S16" s="0">
         <v>0</v>
       </c>
     </row>
@@ -3449,10 +3373,10 @@
         <v>30</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>8</v>
@@ -3460,7 +3384,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D2" s="0">
         <v>1</v>
@@ -3468,7 +3392,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
@@ -3476,7 +3400,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
@@ -3484,7 +3408,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D5" s="0">
         <v>1002</v>
@@ -3506,7 +3430,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>30</v>
@@ -3515,52 +3439,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>196</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>201</v>
       </c>
       <c r="P1" s="0" t="s">
         <v>6</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="T1" s="0" t="s">
         <v>8</v>
@@ -3568,16 +3492,16 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E2" s="0">
         <v>45272</v>
@@ -3589,7 +3513,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I2" s="0">
         <v>12</v>
@@ -3598,19 +3522,19 @@
         <v>34</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L2" s="0">
         <v>1</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S2" s="0" t="b">
         <v>0</v>
@@ -3621,16 +3545,16 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E3" s="0">
         <v>45272</v>
@@ -3642,7 +3566,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I3" s="0">
         <v>45</v>
@@ -3651,19 +3575,19 @@
         <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L3" s="0">
         <v>2</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="R3" s="0">
         <v>45432.84303045139</v>
@@ -3677,16 +3601,16 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E4" s="0">
         <v>45272</v>
@@ -3698,7 +3622,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I4" s="0">
         <v>23</v>
@@ -3707,19 +3631,19 @@
         <v>56</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L4" s="0">
         <v>3</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S4" s="0" t="b">
         <v>0</v>
@@ -3730,16 +3654,16 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E5" s="0">
         <v>45272</v>
@@ -3751,7 +3675,7 @@
         <v>45</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I5" s="0">
         <v>45</v>
@@ -3760,19 +3684,19 @@
         <v>12</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L5" s="0">
         <v>1</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S5" s="0" t="b">
         <v>0</v>
@@ -3783,16 +3707,16 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E6" s="0">
         <v>45638</v>
@@ -3804,7 +3728,7 @@
         <v>45</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I6" s="0">
         <v>45</v>
@@ -3813,19 +3737,19 @@
         <v>45</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L6" s="0">
         <v>2</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S6" s="0" t="b">
         <v>0</v>
@@ -3850,16 +3774,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>8</v>
@@ -3873,7 +3797,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E2" s="0">
         <v>1002</v>
@@ -3887,7 +3811,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E3" s="0">
         <v>1003</v>
@@ -3901,7 +3825,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E4" s="0">
         <v>1004</v>
@@ -3915,7 +3839,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E5" s="0">
         <v>1005</v>
@@ -3929,7 +3853,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E6" s="0">
         <v>1008</v>
@@ -3943,7 +3867,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E7" s="0">
         <v>1010</v>
@@ -3957,7 +3881,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3965,55 +3889,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N1" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="R1" s="0" t="s">
         <v>8</v>
@@ -4021,43 +3945,46 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B2" s="0">
-        <v>45638</v>
+        <v>45440.65625</v>
       </c>
       <c r="C2" s="0">
-        <v>0.7083333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="0">
         <v>0.75</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G2" s="0">
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
+      </c>
+      <c r="P2" s="0">
+        <v>45440.485411898146</v>
       </c>
       <c r="Q2" s="0" t="b">
         <v>0</v>
@@ -4068,7 +3995,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B3" s="0">
         <v>45638</v>
@@ -4080,31 +4007,31 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G3" s="0">
         <v>2</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q3" s="0" t="b">
         <v>0</v>
@@ -4115,7 +4042,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B4" s="0">
         <v>45543</v>
@@ -4127,31 +4054,31 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G4" s="0">
         <v>3</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q4" s="0" t="b">
         <v>0</v>
@@ -4162,7 +4089,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B5" s="0">
         <v>45482</v>
@@ -4174,31 +4101,31 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G5" s="0">
         <v>2</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="0" t="b">
         <v>0</v>
@@ -4209,7 +4136,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B6" s="0">
         <v>45391</v>
@@ -4221,31 +4148,31 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G6" s="0">
         <v>1</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q6" s="0" t="b">
         <v>0</v>
@@ -4256,7 +4183,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B7" s="0">
         <v>45544</v>
@@ -4268,31 +4195,31 @@
         <v>0.6819444444444445</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G7" s="0">
         <v>2</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="0" t="b">
         <v>0</v>
@@ -4303,7 +4230,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
@@ -4315,31 +4242,31 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G8" s="0">
         <v>2</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="O8" s="0">
         <v>45435.65581940972</v>
@@ -4352,6 +4279,59 @@
       </c>
       <c r="R8" s="0">
         <v>1006</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="0">
+        <v>45366.59652777778</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.5965277777777778</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="G9" s="0">
+        <v>2</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="O9" s="0">
+        <v>45440.43112001158</v>
+      </c>
+      <c r="P9" s="0">
+        <v>45440.47825753472</v>
+      </c>
+      <c r="Q9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="0">
+        <v>3007</v>
       </c>
     </row>
   </sheetData>
@@ -4362,7 +4342,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4370,16 +4350,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>8</v>
@@ -4393,7 +4373,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E2" s="0">
         <v>1</v>
@@ -4407,7 +4387,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E3" s="0">
         <v>2</v>
@@ -4421,7 +4401,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E4" s="0">
         <v>3</v>
@@ -4435,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E5" s="0">
         <v>5</v>
@@ -4449,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E6" s="0">
         <v>6</v>
@@ -4463,7 +4443,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E7" s="0">
         <v>7</v>
@@ -4477,7 +4457,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E8" s="0">
         <v>9</v>
@@ -4491,7 +4471,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E9" s="0">
         <v>10</v>
@@ -4505,7 +4485,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E10" s="0">
         <v>1002</v>
@@ -4519,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E11" s="0">
         <v>1003</v>
@@ -4533,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E12" s="0">
         <v>2002</v>
@@ -4547,10 +4527,24 @@
         <v>2</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E13" s="0">
         <v>2003</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>3007</v>
+      </c>
+      <c r="B14" s="0">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" s="0">
+        <v>4003</v>
       </c>
     </row>
   </sheetData>

--- a/MvcProject/MvcProject/Excel/file.xlsx
+++ b/MvcProject/MvcProject/Excel/file.xlsx
@@ -342,7 +342,7 @@
     <t>IOKMR2WQUF4ISNOINZ2NM3PGN4WXVG4Z</t>
   </si>
   <si>
-    <t>66298628-a11c-4920-8a4c-f246e4150265</t>
+    <t>ddbbce28-95f6-4746-8545-fddba2065f93</t>
   </si>
   <si>
     <t>Nargiz nadirli</t>
@@ -792,7 +792,7 @@
     <t>event5.jpg</t>
   </si>
   <si>
-    <t>summer</t>
+    <t>summerr</t>
   </si>
   <si>
     <t>semkir</t>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="6">
       <c r="C6" s="0">
-        <v>45440.75629636574</v>
+        <v>45441.035439224535</v>
       </c>
       <c r="D6" s="0" t="b">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>237</v>
       </c>
       <c r="B2" s="0">
-        <v>45440.65625</v>
+        <v>45443.65625</v>
       </c>
       <c r="C2" s="0">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D2" s="0">
         <v>0.75</v>
@@ -3984,7 +3984,7 @@
         <v>208</v>
       </c>
       <c r="P2" s="0">
-        <v>45440.485411898146</v>
+        <v>45440.60636751157</v>
       </c>
       <c r="Q2" s="0" t="b">
         <v>0</v>
@@ -4033,6 +4033,9 @@
       <c r="M3" s="0" t="s">
         <v>208</v>
       </c>
+      <c r="P3" s="0">
+        <v>45440.60648835648</v>
+      </c>
       <c r="Q3" s="0" t="b">
         <v>0</v>
       </c>
@@ -4080,6 +4083,9 @@
       <c r="M4" s="0" t="s">
         <v>208</v>
       </c>
+      <c r="P4" s="0">
+        <v>45440.606584340276</v>
+      </c>
       <c r="Q4" s="0" t="b">
         <v>0</v>
       </c>
@@ -4095,7 +4101,7 @@
         <v>45482</v>
       </c>
       <c r="C5" s="0">
-        <v>0.7083333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="0">
         <v>0.7083333333333334</v>
@@ -4126,6 +4132,9 @@
       </c>
       <c r="M5" s="0" t="s">
         <v>208</v>
+      </c>
+      <c r="P5" s="0">
+        <v>45440.606696689814</v>
       </c>
       <c r="Q5" s="0" t="b">
         <v>0</v>
@@ -4139,10 +4148,10 @@
         <v>253</v>
       </c>
       <c r="B6" s="0">
-        <v>45391</v>
+        <v>45547</v>
       </c>
       <c r="C6" s="0">
-        <v>0.7083333333333334</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="D6" s="0">
         <v>0.7083333333333334</v>
@@ -4173,6 +4182,9 @@
       </c>
       <c r="M6" s="0" t="s">
         <v>208</v>
+      </c>
+      <c r="P6" s="0">
+        <v>45440.611788993054</v>
       </c>
       <c r="Q6" s="0" t="b">
         <v>0</v>
@@ -4189,7 +4201,7 @@
         <v>45544</v>
       </c>
       <c r="C7" s="0">
-        <v>0.6819444444444445</v>
+        <v>0.5152777777777777</v>
       </c>
       <c r="D7" s="0">
         <v>0.6819444444444445</v>
@@ -4220,6 +4232,9 @@
       </c>
       <c r="M7" s="0" t="s">
         <v>208</v>
+      </c>
+      <c r="P7" s="0">
+        <v>45440.60719592593</v>
       </c>
       <c r="Q7" s="0" t="b">
         <v>0</v>
@@ -4233,7 +4248,7 @@
         <v>261</v>
       </c>
       <c r="B8" s="0">
-        <v>0</v>
+        <v>45656.77361111111</v>
       </c>
       <c r="C8" s="0">
         <v>0.6666666666666666</v>
@@ -4272,7 +4287,7 @@
         <v>45435.65581940972</v>
       </c>
       <c r="P8" s="0">
-        <v>45435.655818506944</v>
+        <v>45440.607963449074</v>
       </c>
       <c r="Q8" s="0" t="b">
         <v>0</v>

--- a/MvcProject/MvcProject/Excel/file.xlsx
+++ b/MvcProject/MvcProject/Excel/file.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
   <si>
     <t>Title1</t>
   </si>
@@ -240,6 +240,33 @@
     <t>6793d164-5d27-421e-94b4-2c8e69f849de</t>
   </si>
   <si>
+    <t>Elmar Qarayev</t>
+  </si>
+  <si>
+    <t>0b009bd8-6d70-47d0-bf11-ff5fbf8848cd</t>
+  </si>
+  <si>
+    <t>Thiselmm</t>
+  </si>
+  <si>
+    <t>THISELMM</t>
+  </si>
+  <si>
+    <t>elmarqarayev69@gmail.com</t>
+  </si>
+  <si>
+    <t>ELMARQARAYEV69@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>AQAAAAIAAYagAAAAEANRmpRx2nA8FbS+Y6Nv/KFisOIkMMaFQ/qm3veWR8rsR2CtymcVyt/pdkRFj0obAw==</t>
+  </si>
+  <si>
+    <t>QD6AHWUFJ2O7BZ3NEUPHBZC7PJRZZ25D</t>
+  </si>
+  <si>
+    <t>98c70e84-3ab5-498e-b420-6d9aa9f66a9e</t>
+  </si>
+  <si>
     <t>Behram Zohrabov</t>
   </si>
   <si>
@@ -267,13 +294,91 @@
     <t>87c47f67-d809-4a75-ba3b-ffe3448090e4</t>
   </si>
   <si>
+    <t>CengizAsker</t>
+  </si>
+  <si>
+    <t>2b5c2940-dc3e-4e21-99ce-5ee24b6d8358</t>
+  </si>
+  <si>
+    <t>cengiz</t>
+  </si>
+  <si>
+    <t>CENGIZ</t>
+  </si>
+  <si>
+    <t>cengiz@email.com</t>
+  </si>
+  <si>
+    <t>CENGIZ@EMAIL.COM</t>
+  </si>
+  <si>
+    <t>AQAAAAIAAYagAAAAEDg4h/RG6KTCLx7YzW9pIkJii/NHcXe4FFio3He7k4KRusbF5Lo5qriLHAeqK4ciTw==</t>
+  </si>
+  <si>
+    <t>AHJNHCVA5MOQNY6UZJMZBIEGIIIVWKRM</t>
+  </si>
+  <si>
+    <t>21f400fd-7618-4ca2-b96b-88e72478438d</t>
+  </si>
+  <si>
+    <t>ECI0pRkaioJHQh3mzU1yPw</t>
+  </si>
+  <si>
+    <t>78ec10d1-b158-4b7e-9583-9201f1062d63</t>
+  </si>
+  <si>
+    <t>superadmin</t>
+  </si>
+  <si>
+    <t>SUPERADMIN</t>
+  </si>
+  <si>
+    <t>superadmin@gmail.com</t>
+  </si>
+  <si>
+    <t>SUPERADMIN@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>AQAAAAIAAYagAAAAEPoJOSlT2gOaxaZXDBNhg/gtjshENBoJWfpFsQD3rdUXDaoWrFySal9JXyjoGqKVMQ==</t>
+  </si>
+  <si>
+    <t>IOKMR2WQUF4ISNOINZ2NM3PGN4WXVG4Z</t>
+  </si>
+  <si>
+    <t>28d4cb17-7604-4239-b572-fc83ee41d248</t>
+  </si>
+  <si>
+    <t>Nargiz nadirli</t>
+  </si>
+  <si>
+    <t>86fd65d5-4b12-4977-92c2-076aff32925a</t>
+  </si>
+  <si>
+    <t>NargizNadir</t>
+  </si>
+  <si>
+    <t>NARGIZNADIR</t>
+  </si>
+  <si>
+    <t>nargizzn@code.edu.edu.az</t>
+  </si>
+  <si>
+    <t>NARGIZZN@CODE.EDU.EDU.AZ</t>
+  </si>
+  <si>
+    <t>AQAAAAIAAYagAAAAEIjxLrkG7rlykgP/ksCXqQgCZvKEZ4DvlJouWbXP97vm9G5nX5Z0vV3Z7aq9fz70ug==</t>
+  </si>
+  <si>
+    <t>VNWBNEBAC7XXYZA4NBOWLRMXRMCXYZ32</t>
+  </si>
+  <si>
+    <t>910fcf66-03d6-4d2a-aa20-9b6015973de6</t>
+  </si>
+  <si>
     <t>elmareg</t>
   </si>
   <si>
-    <t>apG4cQdTQJfVMNHby1zPsw</t>
-  </si>
-  <si>
-    <t>1cbb7439-4567-4a9d-9bd4-a50e05d35691</t>
+    <t>8f00b327-f069-4d60-96af-2f23c8e1c684</t>
   </si>
   <si>
     <t>ELMAREG</t>
@@ -285,91 +390,13 @@
     <t>ELMAREG@CODE.EDU.AZ</t>
   </si>
   <si>
-    <t>AQAAAAIAAYagAAAAEBmHJMwI0dfFoztioy6jeehuF7b+IL0EhSDmwi5DJ8ZfWiOKxW7sQi0kLyCizwGKiw==</t>
-  </si>
-  <si>
-    <t>25LYVTGFG7Q4CZM7QJJD7A2YOCBRHJ7M</t>
-  </si>
-  <si>
-    <t>83b7058f-55cf-458c-a1e7-d44146fff41d</t>
-  </si>
-  <si>
-    <t>CengizAsker</t>
-  </si>
-  <si>
-    <t>2b5c2940-dc3e-4e21-99ce-5ee24b6d8358</t>
-  </si>
-  <si>
-    <t>cengiz</t>
-  </si>
-  <si>
-    <t>CENGIZ</t>
-  </si>
-  <si>
-    <t>cengiz@email.com</t>
-  </si>
-  <si>
-    <t>CENGIZ@EMAIL.COM</t>
-  </si>
-  <si>
-    <t>AQAAAAIAAYagAAAAEDg4h/RG6KTCLx7YzW9pIkJii/NHcXe4FFio3He7k4KRusbF5Lo5qriLHAeqK4ciTw==</t>
-  </si>
-  <si>
-    <t>AHJNHCVA5MOQNY6UZJMZBIEGIIIVWKRM</t>
-  </si>
-  <si>
-    <t>21f400fd-7618-4ca2-b96b-88e72478438d</t>
-  </si>
-  <si>
-    <t>78ec10d1-b158-4b7e-9583-9201f1062d63</t>
-  </si>
-  <si>
-    <t>superadmin</t>
-  </si>
-  <si>
-    <t>SUPERADMIN</t>
-  </si>
-  <si>
-    <t>superadmin@gmail.com</t>
-  </si>
-  <si>
-    <t>SUPERADMIN@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>AQAAAAIAAYagAAAAEPoJOSlT2gOaxaZXDBNhg/gtjshENBoJWfpFsQD3rdUXDaoWrFySal9JXyjoGqKVMQ==</t>
-  </si>
-  <si>
-    <t>IOKMR2WQUF4ISNOINZ2NM3PGN4WXVG4Z</t>
-  </si>
-  <si>
-    <t>ddbbce28-95f6-4746-8545-fddba2065f93</t>
-  </si>
-  <si>
-    <t>Nargiz nadirli</t>
-  </si>
-  <si>
-    <t>86fd65d5-4b12-4977-92c2-076aff32925a</t>
-  </si>
-  <si>
-    <t>NargizNadir</t>
-  </si>
-  <si>
-    <t>NARGIZNADIR</t>
-  </si>
-  <si>
-    <t>nargizzn@code.edu.edu.az</t>
-  </si>
-  <si>
-    <t>NARGIZZN@CODE.EDU.EDU.AZ</t>
-  </si>
-  <si>
-    <t>AQAAAAIAAYagAAAAEIjxLrkG7rlykgP/ksCXqQgCZvKEZ4DvlJouWbXP97vm9G5nX5Z0vV3Z7aq9fz70ug==</t>
-  </si>
-  <si>
-    <t>VNWBNEBAC7XXYZA4NBOWLRMXRMCXYZ32</t>
-  </si>
-  <si>
-    <t>910fcf66-03d6-4d2a-aa20-9b6015973de6</t>
+    <t>AQAAAAIAAYagAAAAECJ5FYktk1HQJSURaGWF/CgEQtjY+k3XU/wnYtblrSm0rr0lVhDrJLID1fxOKFb17Q==</t>
+  </si>
+  <si>
+    <t>PBCUE6PRQODY4MYQ2QTDS7HGWASWIEEP</t>
+  </si>
+  <si>
+    <t>ba53ccf7-1497-47ac-bb00-6203a29d0cde</t>
   </si>
   <si>
     <t>kenan tagiyev</t>
@@ -480,6 +507,24 @@
     <t>7abcbe82-a2fc-4794-a3ec-b5633d9eb80e</t>
   </si>
   <si>
+    <t>d6ce7a14-9e53-4e3d-b802-2ec81eb2b846</t>
+  </si>
+  <si>
+    <t>elmmmm</t>
+  </si>
+  <si>
+    <t>ELMMMM</t>
+  </si>
+  <si>
+    <t>AQAAAAIAAYagAAAAEL4CSAFChXHGbfbnJGMbd3o4PEwGqi1Vuhl8rrPLWYoymX4PgLSzC6bAhxZ0rIJZUA==</t>
+  </si>
+  <si>
+    <t>RCRJU76DSFEDTAY6W2JW6TUE5PWZFPDN</t>
+  </si>
+  <si>
+    <t>57400e0b-7fb7-4348-8cb6-b213e2e90192</t>
+  </si>
+  <si>
     <t>Mulayim Novruzlu</t>
   </si>
   <si>
@@ -510,33 +555,6 @@
     <t>6aa7b660-b5cf-4a4d-801c-e958f518c0a5</t>
   </si>
   <si>
-    <t>Elmar Qarayev</t>
-  </si>
-  <si>
-    <t>ec73d219-0688-423a-94c9-883967b69b88</t>
-  </si>
-  <si>
-    <t>Thiselmm</t>
-  </si>
-  <si>
-    <t>THISELMM</t>
-  </si>
-  <si>
-    <t>elmarqarayev69@gmail.com</t>
-  </si>
-  <si>
-    <t>ELMARQARAYEV69@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>AQAAAAIAAYagAAAAEKI/hEsT5iPdevyixOKWTNzHP8aeH2sTj8G1OzU2XQeiQnO28pRzQr1637HV3hSuxA==</t>
-  </si>
-  <si>
-    <t>TLOC77NTXJVE6HA5XGRQQF7TV6YJKNJC</t>
-  </si>
-  <si>
-    <t>9086e827-7197-4653-bf8a-a2dab0f3f2c8</t>
-  </si>
-  <si>
     <t>Mahmud Mirzezade</t>
   </si>
   <si>
@@ -849,6 +867,30 @@
     <t>film</t>
   </si>
   <si>
+    <t>9udbhr9u</t>
+  </si>
+  <si>
+    <t>iongeoi</t>
+  </si>
+  <si>
+    <t>iongois</t>
+  </si>
+  <si>
+    <t>ionvsoi</t>
+  </si>
+  <si>
+    <t>iognreoi</t>
+  </si>
+  <si>
+    <t>oiwefnwoi</t>
+  </si>
+  <si>
+    <t>oifngoei</t>
+  </si>
+  <si>
+    <t>oingeo</t>
+  </si>
+  <si>
     <t>Position</t>
   </si>
   <si>
@@ -1111,6 +1153,9 @@
   </si>
   <si>
     <t>Rejected</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
   <si>
     <t>ImgName</t>
@@ -1359,16 +1404,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>8</v>
@@ -1382,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E2" s="0">
         <v>1</v>
@@ -1396,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E3" s="0">
         <v>3</v>
@@ -1410,7 +1455,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E4" s="0">
         <v>4</v>
@@ -1424,7 +1469,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E5" s="0">
         <v>6</v>
@@ -1438,7 +1483,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E6" s="0">
         <v>7</v>
@@ -1452,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E7" s="0">
         <v>8</v>
@@ -1466,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E8" s="0">
         <v>9</v>
@@ -1480,7 +1525,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E9" s="0">
         <v>2002</v>
@@ -1494,7 +1539,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E10" s="0">
         <v>2003</v>
@@ -1508,7 +1553,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E11" s="0">
         <v>4003</v>
@@ -1522,7 +1567,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1533,10 +1578,10 @@
         <v>30</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>8</v>
@@ -1544,13 +1589,13 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D2" s="0">
         <v>1</v>
@@ -1558,13 +1603,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
@@ -1572,13 +1617,13 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
@@ -1586,10 +1631,74 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D5" s="0">
         <v>2002</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="0">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="0">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" s="0">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" s="0">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="0">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="0">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="0">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" s="0">
+        <v>4009</v>
       </c>
     </row>
   </sheetData>
@@ -1608,73 +1717,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="R1" s="0" t="s">
         <v>49</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="V1" s="0" t="s">
         <v>6</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="X1" s="0" t="s">
         <v>8</v>
@@ -1682,34 +1791,34 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="K2" s="0">
         <v>34</v>
@@ -1730,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="X2" s="0">
         <v>2</v>
@@ -1753,34 +1862,34 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K3" s="0">
         <v>0</v>
@@ -1801,22 +1910,22 @@
         <v>0</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="X3" s="0">
         <v>3</v>
@@ -1824,34 +1933,34 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K4" s="0">
         <v>0</v>
@@ -1872,22 +1981,22 @@
         <v>0</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="X4" s="0">
         <v>4</v>
@@ -1909,34 +2018,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
@@ -1944,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6">
@@ -1952,63 +2061,63 @@
         <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2033,22 +2142,22 @@
         <v>30</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>49</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2">
@@ -2056,19 +2165,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="D2" s="0">
         <v>45433.83282028935</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3">
@@ -2076,19 +2185,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="D3" s="0">
         <v>45434.418340833334</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4">
@@ -2102,10 +2211,10 @@
         <v>45434.42715778935</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>90</v>
@@ -2122,10 +2231,10 @@
         <v>45435.06638769676</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>90</v>
@@ -2136,19 +2245,19 @@
         <v>1005</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="D6" s="0">
         <v>45435.07492116898</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7">
@@ -2156,39 +2265,39 @@
         <v>2004</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="D7" s="0">
         <v>45437.646897349536</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>3004</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>81</v>
+        <v>3005</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="D8" s="0">
-        <v>45440.70775488426</v>
+        <v>45442.8046506713</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>79</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -2199,7 +2308,7 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2207,10 +2316,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>43</v>
@@ -2219,19 +2328,19 @@
         <v>49</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>8</v>
@@ -2242,19 +2351,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="E2" s="0">
         <v>45434.72516041667</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J2" s="0">
         <v>6</v>
@@ -2271,13 +2380,13 @@
         <v>45435.06265453704</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>90</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J3" s="0">
         <v>1002</v>
@@ -2285,7 +2394,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B4" s="0">
         <v>2</v>
@@ -2294,13 +2403,13 @@
         <v>45435.4767309838</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J4" s="0">
         <v>2002</v>
@@ -2308,7 +2417,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B5" s="0">
         <v>2</v>
@@ -2317,13 +2426,13 @@
         <v>45436.807253252315</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J5" s="0">
         <v>5005</v>
@@ -2331,7 +2440,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B6" s="0">
         <v>1</v>
@@ -2340,13 +2449,13 @@
         <v>45436.807348298615</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J6" s="0">
         <v>5006</v>
@@ -2354,7 +2463,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B7" s="0">
         <v>5</v>
@@ -2363,13 +2472,13 @@
         <v>45438.54137724537</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J7" s="0">
         <v>7003</v>
@@ -2377,25 +2486,48 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="B8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0">
-        <v>45440.710728935184</v>
+        <v>45442.80669925926</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J8" s="0">
-        <v>9004</v>
+        <v>11004</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="0">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0">
+        <v>45442.808744305556</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="J9" s="0">
+        <v>11005</v>
       </c>
     </row>
   </sheetData>
@@ -2414,7 +2546,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>43</v>
@@ -2423,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>6</v>
@@ -2437,16 +2569,16 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="F2" s="0">
         <v>2</v>
@@ -2457,16 +2589,16 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="F3" s="0">
         <v>4</v>
@@ -2643,7 +2775,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2759,8 +2891,11 @@
       <c r="A3" s="0" t="s">
         <v>70</v>
       </c>
+      <c r="C3" s="0">
+        <v>45442.813079039355</v>
+      </c>
       <c r="D3" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>71</v>
@@ -2778,7 +2913,7 @@
         <v>75</v>
       </c>
       <c r="J3" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>76</v>
@@ -2806,20 +2941,14 @@
       <c r="A4" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="D4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="0">
-        <v>45440.71106956019</v>
-      </c>
-      <c r="D4" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>79</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>82</v>
@@ -2903,38 +3032,41 @@
       </c>
     </row>
     <row r="6">
+      <c r="B6" s="0" t="s">
+        <v>97</v>
+      </c>
       <c r="C6" s="0">
-        <v>45441.035439224535</v>
+        <v>45461.85823951389</v>
       </c>
       <c r="D6" s="0" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J6" s="0" t="b">
         <v>0</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O6" s="0" t="b">
         <v>0</v>
@@ -2951,37 +3083,37 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D7" s="0" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J7" s="0" t="b">
         <v>0</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O7" s="0" t="b">
         <v>0</v>
@@ -2998,16 +3130,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="C8" s="0">
+        <v>45442.807051157404</v>
       </c>
       <c r="D8" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>116</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>117</v>
@@ -3044,29 +3179,38 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>123</v>
+      </c>
       <c r="D9" s="0" t="b">
         <v>0</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="J9" s="0" t="b">
         <v>0</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O9" s="0" t="b">
         <v>0</v>
@@ -3086,25 +3230,25 @@
         <v>0</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J10" s="0" t="b">
         <v>0</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O10" s="0" t="b">
         <v>0</v>
@@ -3120,25 +3264,16 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="D11" s="0" t="b">
         <v>0</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="I11" s="0" t="s">
         <v>140</v>
       </c>
       <c r="J11" s="0" t="b">
@@ -3167,29 +3302,38 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>144</v>
+      </c>
       <c r="D12" s="0" t="b">
         <v>0</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>149</v>
       </c>
       <c r="J12" s="0" t="b">
         <v>0</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O12" s="0" t="b">
         <v>0</v>
@@ -3205,94 +3349,67 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="0">
-        <v>45438.99663332176</v>
-      </c>
       <c r="D13" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="H13" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="J13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="J13" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="s">
+      <c r="L13" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="M13" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="O13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="O13" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="R13" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S13" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="F14" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="0">
-        <v>45440.70657541667</v>
-      </c>
-      <c r="D14" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="J14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="L14" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="M14" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="J14" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>168</v>
       </c>
       <c r="O14" s="0" t="b">
         <v>0</v>
@@ -3309,48 +3426,101 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="0">
+        <v>45438.99663332176</v>
+      </c>
+      <c r="D15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" s="0" t="s">
+      <c r="H15" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="I15" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="J15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="L15" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="M15" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="J15" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="0" t="s">
+      <c r="O15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="D16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="F16" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="O15" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="R15" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="S15" s="0">
+      <c r="G16" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="J16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="O16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" s="0">
         <v>0</v>
       </c>
     </row>
@@ -3373,10 +3543,10 @@
         <v>30</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>8</v>
@@ -3384,7 +3554,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D2" s="0">
         <v>1</v>
@@ -3392,7 +3562,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
@@ -3400,7 +3570,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
@@ -3408,7 +3578,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D5" s="0">
         <v>1002</v>
@@ -3430,7 +3600,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>30</v>
@@ -3439,52 +3609,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P1" s="0" t="s">
         <v>6</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="T1" s="0" t="s">
         <v>8</v>
@@ -3492,16 +3662,16 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E2" s="0">
         <v>45272</v>
@@ -3513,7 +3683,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I2" s="0">
         <v>12</v>
@@ -3522,19 +3692,19 @@
         <v>34</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L2" s="0">
         <v>1</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="S2" s="0" t="b">
         <v>0</v>
@@ -3545,16 +3715,16 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E3" s="0">
         <v>45272</v>
@@ -3566,7 +3736,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="I3" s="0">
         <v>45</v>
@@ -3575,19 +3745,19 @@
         <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L3" s="0">
         <v>2</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="R3" s="0">
         <v>45432.84303045139</v>
@@ -3601,16 +3771,16 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E4" s="0">
         <v>45272</v>
@@ -3622,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="I4" s="0">
         <v>23</v>
@@ -3631,19 +3801,19 @@
         <v>56</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L4" s="0">
         <v>3</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="S4" s="0" t="b">
         <v>0</v>
@@ -3654,16 +3824,16 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E5" s="0">
         <v>45272</v>
@@ -3675,7 +3845,7 @@
         <v>45</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="I5" s="0">
         <v>45</v>
@@ -3684,19 +3854,19 @@
         <v>12</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L5" s="0">
         <v>1</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="S5" s="0" t="b">
         <v>0</v>
@@ -3707,16 +3877,16 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E6" s="0">
         <v>45638</v>
@@ -3728,7 +3898,7 @@
         <v>45</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="I6" s="0">
         <v>45</v>
@@ -3737,19 +3907,19 @@
         <v>45</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L6" s="0">
         <v>2</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="S6" s="0" t="b">
         <v>0</v>
@@ -3774,16 +3944,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>8</v>
@@ -3797,7 +3967,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E2" s="0">
         <v>1002</v>
@@ -3811,7 +3981,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E3" s="0">
         <v>1003</v>
@@ -3825,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E4" s="0">
         <v>1004</v>
@@ -3839,7 +4009,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E5" s="0">
         <v>1005</v>
@@ -3853,7 +4023,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E6" s="0">
         <v>1008</v>
@@ -3867,7 +4037,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E7" s="0">
         <v>1010</v>
@@ -3889,55 +4059,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="N1" s="0" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="R1" s="0" t="s">
         <v>8</v>
@@ -3945,7 +4115,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B2" s="0">
         <v>45443.65625</v>
@@ -3957,31 +4127,31 @@
         <v>0.75</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G2" s="0">
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P2" s="0">
         <v>45440.60636751157</v>
@@ -3995,7 +4165,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B3" s="0">
         <v>45638</v>
@@ -4007,31 +4177,31 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G3" s="0">
         <v>2</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P3" s="0">
         <v>45440.60648835648</v>
@@ -4045,7 +4215,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B4" s="0">
         <v>45543</v>
@@ -4057,31 +4227,31 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G4" s="0">
         <v>3</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P4" s="0">
         <v>45440.606584340276</v>
@@ -4095,7 +4265,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B5" s="0">
         <v>45482</v>
@@ -4107,31 +4277,31 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G5" s="0">
         <v>2</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P5" s="0">
         <v>45440.606696689814</v>
@@ -4145,7 +4315,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B6" s="0">
         <v>45547</v>
@@ -4157,31 +4327,31 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G6" s="0">
         <v>1</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P6" s="0">
         <v>45440.611788993054</v>
@@ -4195,7 +4365,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B7" s="0">
         <v>45544</v>
@@ -4207,31 +4377,31 @@
         <v>0.6819444444444445</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G7" s="0">
         <v>2</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P7" s="0">
         <v>45440.60719592593</v>
@@ -4245,7 +4415,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B8" s="0">
         <v>45656.77361111111</v>
@@ -4257,31 +4427,31 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G8" s="0">
         <v>2</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="O8" s="0">
         <v>45435.65581940972</v>
@@ -4298,7 +4468,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B9" s="0">
         <v>45366.59652777778</v>
@@ -4310,31 +4480,31 @@
         <v>0.75</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G9" s="0">
         <v>2</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="O9" s="0">
         <v>45440.43112001158</v>
@@ -4365,16 +4535,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>8</v>
@@ -4388,7 +4558,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E2" s="0">
         <v>1</v>
@@ -4402,7 +4572,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E3" s="0">
         <v>2</v>
@@ -4416,7 +4586,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E4" s="0">
         <v>3</v>
@@ -4430,7 +4600,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E5" s="0">
         <v>5</v>
@@ -4444,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E6" s="0">
         <v>6</v>
@@ -4458,7 +4628,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E7" s="0">
         <v>7</v>
@@ -4472,7 +4642,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E8" s="0">
         <v>9</v>
@@ -4486,7 +4656,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E9" s="0">
         <v>10</v>
@@ -4500,7 +4670,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E10" s="0">
         <v>1002</v>
@@ -4514,7 +4684,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E11" s="0">
         <v>1003</v>
@@ -4528,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E12" s="0">
         <v>2002</v>
@@ -4542,7 +4712,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E13" s="0">
         <v>2003</v>
@@ -4556,7 +4726,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E14" s="0">
         <v>4003</v>
